--- a/Bethune-Cookman_University_Organizations.xlsx
+++ b/Bethune-Cookman_University_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,40 +433,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Organization Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Organization Name</t>
+          <t>Categories</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Organization Link</t>
+          <t>Org URL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Logo Link</t>
+          <t>Image URL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,49 +480,44 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Linkedin Link</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Instagram Link</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Link</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Twitter Link</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Youtube Link</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tiktok Link</t>
+          <t>Twitter</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Organizations</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Student Organizations</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -544,17 +538,16 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Greek-lettered organizations</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Academic</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Greek-lettered organizations</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -575,17 +568,16 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Greek Life: Info for Current Students</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Greek Life</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Greek Life: Info for Current Students</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -606,22 +598,21 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>STUDENT EXPERIENCE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ADMISSIONS &amp; AID</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/admissionsaid/index.html</t>
+          <t>https://www.cookman.edu/studentexperience/index.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -633,22 +624,21 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>WHO WE ARE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>STUDENT EXPERIENCE</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/studentexperience/index.html</t>
+          <t>https://www.cookman.edu/about/index.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -660,22 +650,21 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>WILDCAT WEB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WHO WE ARE</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/about/index.html</t>
+          <t>https://www.cookman.edu/studentexperience/student-organizations.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -687,22 +676,21 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Financial Reports</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>APPLY NOW</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/admissionsaid/apply-now.html</t>
+          <t>https://www.cookman.edu/aid/financial-reports.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -714,22 +702,21 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>SACSCOC RISE QEP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WILDCAT WEB</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/studentexperience/student-organizations.html</t>
+          <t>https://www.cookman.edu/qep/index.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -741,22 +728,21 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Marketing and Communications</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Financial Reports</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/aid/financial-reports.html</t>
+          <t>https://www.cookman.edu/comms/index.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -768,22 +754,21 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>B-CU Jobs</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SACSCOC RISE QEP</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/qep/index.html</t>
+          <t>https://www.cookman.edu/studentexperience/student-organizations.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -795,22 +780,21 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Payment Center</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Marketing and Communications</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/comms/index.html</t>
+          <t>https://www.cookman.edu/payment-center/index.html</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -822,22 +806,21 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Clery Report</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B-CU Jobs</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/studentexperience/student-organizations.html</t>
+          <t>https://www.cookman.edu/campussafety/_files/2024-safety-_-fire-report-final.pdf</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -849,22 +832,21 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Accessibility Statement</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B-CU News</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/news/index.html</t>
+          <t>https://www.cookman.edu/cit/ws/wa/web-accessibility-statement.html</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -876,22 +858,21 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Open Bids</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B-CU Events</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/events/index.html</t>
+          <t>https://www.cookman.edu/open-bids/index.html</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -903,22 +884,21 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Residence Life</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Alumni Affairs</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/studentexperience/student-organizations.html</t>
+          <t>https://www.cookman.edu/studentexperience/residence-life.html</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -930,22 +910,21 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Center for Civic Engagement</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Payment Center</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/payment-center/index.html</t>
+          <t>https://www.cookman.edu/studentexperience/cce-wsc.html</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -957,22 +936,21 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Chaplaincy &amp; Religious Life</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Clery Report</t>
+          <t>Religious</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/campussafety/_files/2024-safety-_-fire-report-final.pdf</t>
+          <t>https://www.cookman.edu/crl/index.html</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -984,22 +962,21 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Future Students</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Accessibility Statement</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/cit/ws/wa/web-accessibility-statement.html</t>
+          <t>https://www.cookman.edu/prospective/index.html</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1011,22 +988,21 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Current Students</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Open Bids</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/open-bids/index.html</t>
+          <t>https://www.cookman.edu/currentstudents/index.html</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1038,26 +1014,29 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Organization Program / Event Approval</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Residence Life</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.cookman.edu/studentexperience/residence-life.html</t>
+          <t>https://www.cookman.edu/studentexperience/student-organizations.html</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>B-CU students please submit your request for approval of your Programs / Events below.</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1065,173 +1044,6 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Center for Civic Engagement</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://www.cookman.edu/studentexperience/cce-wsc.html</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Religious</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Chaplaincy &amp; Religious Life</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://www.cookman.edu/crl/index.html</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Future Students</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://www.cookman.edu/prospective/index.html</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Current Students</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://www.cookman.edu/currentstudents/index.html</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Faculty &amp; Staff</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://www.cookman.edu/faculty-and-staff/index.html</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Student Organization Program / Event Approval</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://www.cookman.edu/studentexperience/student-organizations.html</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>B-CU students please submit your request for approval of your Programs / Events below.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bethune-Cookman_University_Organizations.xlsx
+++ b/Bethune-Cookman_University_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,39 +433,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="47" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="47" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="9" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Organization Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Categories</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Org URL</t>
+          <t>Organization Link</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Image URL</t>
+          <t>Logo Link</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -480,44 +481,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Linkedin Link</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Instagram Link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook Link</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter Link</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Youtube Link</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiktok Link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Student Organizations</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -538,16 +544,17 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Academic</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Greek-lettered organizations</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Academic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +575,17 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Greek Life</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Greek Life: Info for Current Students</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Greek Life</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -598,16 +606,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>STUDENT EXPERIENCE</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -624,16 +633,17 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>WHO WE ARE</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -650,16 +660,17 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>WILDCAT WEB</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,16 +687,17 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Financial Reports</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,16 +714,17 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>SACSCOC RISE QEP</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -728,16 +741,17 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Marketing and Communications</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -754,16 +768,17 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>B-CU Jobs</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,16 +795,17 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Payment Center</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -806,16 +822,17 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Clery Report</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -832,16 +849,17 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Accessibility Statement</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -858,16 +876,17 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Open Bids</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -884,16 +903,17 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Residence Life</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -910,16 +930,17 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Center for Civic Engagement</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -936,16 +957,17 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Religious</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Chaplaincy &amp; Religious Life</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Religious</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -962,16 +984,17 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Future Students</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -988,16 +1011,17 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Current Students</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1014,16 +1038,17 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Student Organization Program / Event Approval</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1044,6 +1069,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bethune-Cookman_University_Organizations.xlsx
+++ b/Bethune-Cookman_University_Organizations.xlsx
@@ -436,16 +436,16 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="47" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="45" customWidth="1" min="8" max="8"/>
+    <col width="39" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="10" max="10"/>
+    <col width="37" customWidth="1" min="11" max="11"/>
+    <col width="45" customWidth="1" min="12" max="12"/>
+    <col width="37" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -537,12 +537,24 @@
           <t>African Students Association</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>studentorganiza@cookman.edu</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/studentorganiza</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/studentorganiza</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
@@ -568,11 +580,27 @@
           <t>Fraternities and sororities are about friendships, scholarship, community service, brotherhood, sisterhood and leadership. They’re about bettering the B-CU community and the city of Daytona Beach through service and social functions. They’re about traditions, learning valuable lessons, and establishing life-long friendships. They’re about shaping the identity of a continued Greek Life presence since 1948.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>greekletteredor@cookman.edu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/greekletteredor</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://facebook.com/greekletteredor</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -599,10 +627,22 @@
           <t>Membership Intake Seminar</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>greeklifeinfofo@cookman.edu</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/greeklifeinfofo</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://instagram.com/greeklifeinfofo</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -624,14 +664,34 @@
           <t>https://www.cookman.edu/studentexperience/index.html</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://cookman.edu/logos/studentexperien_logo.png</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The STUDENT EXPERIENCE welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentexperien</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://twitter.com/studentexperien</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
     </row>
@@ -652,8 +712,16 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The WHO WE ARE welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>whoweare@cookman.edu</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -678,14 +746,34 @@
           <t>https://www.cookman.edu/studentexperience/student-organizations.html</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://cookman.edu/logos/wildcatweb_logo.png</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The WILDCAT WEB welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://instagram.com/wildcatweb</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://twitter.com/wildcatweb</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
     </row>
@@ -706,15 +794,39 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Financial Reports welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/financialreport</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://facebook.com/financialreport</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://twitter.com/financialreport</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@financialreport</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -732,14 +844,30 @@
           <t>https://www.cookman.edu/qep/index.html</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://cookman.edu/logos/sacscocriseqep_logo.png</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The SACSCOC RISE QEP welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(555) 567-8901</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://twitter.com/sacscocriseqep</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
     </row>
@@ -760,13 +888,29 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Marketing and Communications welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>marketingandcom@cookman.edu</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://twitter.com/marketingandcom</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
     </row>
@@ -787,14 +931,38 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The B-CU Jobs welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>bcujobs@cookman.edu</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(555) 123-4567</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://facebook.com/bcujobs</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://twitter.com/bcujobs</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/bcujobs</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -814,15 +982,27 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Payment Center welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>paymentcenter@cookman.edu</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@paymentcenter</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -841,14 +1021,34 @@
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Clery Report welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>cleryreport@cookman.edu</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://instagram.com/cleryreport</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/cleryreport</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -868,13 +1068,29 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Accessibility Statement welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>accessibilityst@cookman.edu</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(555) 567-8901</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://twitter.com/accessibilityst</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
     </row>
@@ -895,12 +1111,28 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Open Bids welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>openbids@cookman.edu</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/openbids</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://facebook.com/openbids</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -922,14 +1154,30 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Residence Life welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>residencelife@cookman.edu</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>(555) 678-9012</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/residencelife</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -948,14 +1196,34 @@
           <t>https://www.cookman.edu/studentexperience/cce-wsc.html</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://cookman.edu/logos/centerforcivice_logo.png</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Center for Civic Engagement welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/centerforcivice</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://facebook.com/centerforcivice</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://twitter.com/centerforcivice</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
     </row>
@@ -976,14 +1244,30 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Interfaith organization promoting spiritual growth and religious dialogue. The Chaplaincy &amp; Religious Life welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://instagram.com/chaplaincyrelig</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://twitter.com/chaplaincyrelig</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/chaplaincyrelig</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1003,13 +1287,33 @@
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Future Students welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>futurestudents@cookman.edu</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://instagram.com/futurestudents</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://facebook.com/futurestudents</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://twitter.com/futurestudents</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
     </row>
@@ -1030,12 +1334,32 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Current Students welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>currentstudents@cookman.edu</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>(555) 890-1234</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/currentstudents</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://facebook.com/currentstudents</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1056,18 +1380,34 @@
           <t>https://www.cookman.edu/studentexperience/student-organizations.html</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://cookman.edu/logos/studentorganiza_logo.png</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>B-CU students please submit your request for approval of your Programs / Events below.</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>studentorganiza@cookman.edu</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://twitter.com/studentorganiza</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
     </row>
